--- a/CoreRulebook/Data/Spells/hexes.xlsx
+++ b/CoreRulebook/Data/Spells/hexes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -950,6 +950,27 @@
   </si>
   <si>
     <t xml:space="preserve">If the spell makes contact with matter, causes it to instantly disintegrate. Living beings take 10d10 worth of force damage. Resist for half damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{\bf Werewolf Species spell. This spell can only be learned by werewolves} \\ Release an earsplitting, supernatural roar which causes all beings within 100m to perform a SPR Resist. Failure causes them to gain the {\it Terrified} status. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lombus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target suffers a 1-point penalty to all checks for the duration of the spell. </t>
   </si>
 </sst>
 </file>
@@ -1105,14 +1126,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1126,6 +1147,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="87.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="26.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,6 +2205,64 @@
       </c>
       <c r="J34" s="4" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/hexes.xlsx
+++ b/CoreRulebook/Data/Spells/hexes.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D4368-357F-454A-BD9B-49139EA7CDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,57 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResistDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acidic Burst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambustum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>ResistDV</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
+  </si>
+  <si>
+    <t>Acidic Burst</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>ambustum</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>Green gas</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Fills a cube of size 4m with an acidic cloud that does (5+PP) acid damage per turn. In a confined space, the cloud lasts indefinitely. </t>
@@ -80,93 +85,87 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">An Adept level caster may add 1d6 damage for every 3 character levels over 5</t>
+        <charset val="1"/>
+      </rPr>
+      <t>An Adept level caster may add 1d6 damage for every 3 character levels over 5</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Flame Dart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bundus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Endurance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignite a target at a range of up to 10m, doing 1d4 fire damage (negated on resist)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a Novice level caster or greater, may add 1d4 damage for every 4 levels above 1</t>
+    <t>Flame Dart</t>
+  </si>
+  <si>
+    <t>bundus</t>
+  </si>
+  <si>
+    <t>Red bolt</t>
+  </si>
+  <si>
+    <t>2 turns</t>
+  </si>
+  <si>
+    <t>SPR (Endurance)</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ignite a target at a range of up to 10m, doing 1d4 fire damage (negated on resist)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t>When cast by a Novice level caster or greater, may add 1d4 damage for every 4 levels above 1</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Green Sparks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verdimillious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green bolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emits 3 green sparks from your wand, which can be made to strike at the enemy. 
+    <t>Green Sparks</t>
+  </si>
+  <si>
+    <t>verdimillious</t>
+  </si>
+  <si>
+    <t>Green bolts</t>
+  </si>
+  <si>
+    <t>Emits 3 green sparks from your wand, which can be made to strike at the enemy. 
 Each spark does 1 force damage \cvdv.</t>
   </si>
   <si>
@@ -174,84 +173,81 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Every 3 character levels above 2</t>
+        <charset val="1"/>
+      </rPr>
+      <t>Every 3 character levels above 2</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, add another spark.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Knockback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flipendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bue pulse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Speed)</t>
+    <t>Knockback</t>
+  </si>
+  <si>
+    <t>flipendo</t>
+  </si>
+  <si>
+    <t>Bue pulse</t>
+  </si>
+  <si>
+    <t>ATH (Speed)</t>
   </si>
   <si>
     <t xml:space="preserve">A wave of energy strikes into the target, causing (1+PP)d4 force damage, and pushing the target backwards up to (1+PP) metres. Resist for half damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sting</t>
+    <t>Sting</t>
   </si>
   <si>
     <t xml:space="preserve">ictus </t>
   </si>
   <si>
-    <t xml:space="preserve">Green dart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stings the target for 2 poison damage, plus one \cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An expert level caster may add 2 damage \cvdv, rather than the usual 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lubricor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the target is moving this turn cycle and fails to Resist, they go sprawling onto the ground taking 1d4 bludgeoning damage, and take the `Prone Position’ status.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cascading Missiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unda delor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue bolts</t>
+    <t>Green dart</t>
+  </si>
+  <si>
+    <t>Stings the target for 2 poison damage, plus one \cvdv.</t>
+  </si>
+  <si>
+    <t>An expert level caster may add 2 damage \cvdv, rather than the usual 1.</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>lubricor</t>
+  </si>
+  <si>
+    <t>ATH</t>
+  </si>
+  <si>
+    <t>If the target is moving this turn cycle and fails to Resist, they go sprawling onto the ground taking 1d4 bludgeoning damage, and take the `Prone Position’ status.</t>
+  </si>
+  <si>
+    <t>Cascading Missiles</t>
+  </si>
+  <si>
+    <t>unda delor</t>
+  </si>
+  <si>
+    <t>Blue bolts</t>
   </si>
   <si>
     <t xml:space="preserve">Produce (3+PP) magical darts that fly towards the targets. Each dart does 1+1d4 force damage, and the swarm may be directed to strike multiple targets, or the same target. </t>
@@ -261,57 +257,54 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">An expert level caster may add 2 free power points to the spell for every 3 character levels above 5</t>
+        <charset val="1"/>
+      </rPr>
+      <t>An expert level caster may add 2 free power points to the spell for every 3 character levels above 5</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Disarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expelliarmus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Strength)</t>
+    <t>Disarm</t>
+  </si>
+  <si>
+    <t>expelliarmus</t>
+  </si>
+  <si>
+    <t>Orange bolt</t>
+  </si>
+  <si>
+    <t>ATH (Strength)</t>
   </si>
   <si>
     <t xml:space="preserve">Target performs an ATH(strength) resist check against the casting check. If it fails, the object in the target\apos{}s hand is hurled in a random direction. If two obejcts are held, roll a d4, a 1 or 2=both objects, 3 = left hand, 4 =  right hand. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hoist Enemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levicorpus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invisible pulse</t>
+    <t>Hoist Enemy</t>
+  </si>
+  <si>
+    <t>levicorpus</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Invisible pulse</t>
   </si>
   <si>
     <t xml:space="preserve">Target is hoisted into the air. Whilst airborne, all checks by the target suffer a -2 penalty. 
@@ -321,118 +314,79 @@
     <t xml:space="preserve">When cast by an Expert spellcaster, the target may be moved around whilst airborn at a speed of 1m per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mental Burden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the target fails to Resist, all spells cost 2FP more than their stated value whilst the spell lasts.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character higher than 10</t>
+    <t>Mental Burden</t>
+  </si>
+  <si>
+    <t>onus</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>If the target fails to Resist, all spells cost 2FP more than their stated value whilst the spell lasts.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t>When cast by a character higher than 10</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, spells cost 8FP more than their stated value, and the Resist DV increases to 12.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Perpetual Hunger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW (Endurance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The afflicted feels perpetual, soul-sapping hunger. Every turn where food is not consumed, suffer necrotic damage equal to one-third the number of turns since food was last consumed, until the spell effect ends. Target may perform a Resist check every 3 turns, to end the effect.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character higher than 14</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> level, spell lasts for 10 minutes. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impedimentia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 turns</t>
+    <t>Perpetual Hunger</t>
+  </si>
+  <si>
+    <t>inedia</t>
+  </si>
+  <si>
+    <t>POW (Endurance)</t>
+  </si>
+  <si>
+    <t>Prevent Movement</t>
+  </si>
+  <si>
+    <t>impedimentia</t>
+  </si>
+  <si>
+    <t>3 turns</t>
   </si>
   <si>
     <t xml:space="preserve">Target performs a resist magic check against the casting check, if it fails, target acquires the Trapped status effect. Arms are still free to move, and target can still speak. </t>
   </si>
   <si>
-    <t xml:space="preserve">Strangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offoco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Health)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target must Resist at the beginning of every turn until they succeed. Until then, they are deprived of oxygen, cannot speak, and after 6 turns, cannot take any other actions, and eventually succumb to hypoxia under the usual rules.</t>
+    <t>Strangle</t>
+  </si>
+  <si>
+    <t>offoco</t>
+  </si>
+  <si>
+    <t>Grey bolt</t>
+  </si>
+  <si>
+    <t>ATH (Health)</t>
+  </si>
+  <si>
+    <t>Target must Resist at the beginning of every turn until they succeed. Until then, they are deprived of oxygen, cannot speak, and after 6 turns, cannot take any other actions, and eventually succumb to hypoxia under the usual rules.</t>
   </si>
   <si>
     <r>
@@ -442,7 +396,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a character higher than 15</t>
+      <t>When cast by a character higher than 15</t>
     </r>
     <r>
       <rPr>
@@ -452,7 +406,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -465,28 +419,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Stunning Blast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stupefy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scarlet bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 turns</t>
+    <t>Stunning Blast</t>
+  </si>
+  <si>
+    <t>stupefy</t>
+  </si>
+  <si>
+    <t>Scarlet bolt</t>
+  </si>
+  <si>
+    <t>5 turns</t>
   </si>
   <si>
     <t xml:space="preserve">The target is Stunned for 5 turns. Stunned characters cannot move or speak, but may take a major action to perform a Resist check to end the spell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Bat Bogeys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vespernasum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Causes the mucus in the target{\apos}s nose to gain sentience, take the form of a (1+PP) small bats, and attack the target. 
+    <t>Summon Bat Bogeys</t>
+  </si>
+  <si>
+    <t>vespernasum</t>
+  </si>
+  <si>
+    <t>Causes the mucus in the target{\apos}s nose to gain sentience, take the form of a (1+PP) small bats, and attack the target. 
 Each bat-bogey does 1d4 +2 points of acid damage per turn.</t>
   </si>
   <si>
@@ -494,64 +448,57 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">At 6</t>
+        <charset val="1"/>
+      </rPr>
+      <t>At 6</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 10</t>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 10</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 14</t>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 14</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and 20</t>
@@ -561,50 +508,48 @@
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> levels, the base number of bats increases to 2, 4, 8 and 15 respectively,</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Acid Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saeclifors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green jet</t>
+    <t>Acid Stream</t>
+  </si>
+  <si>
+    <t>saeclifors</t>
+  </si>
+  <si>
+    <t>Green jet</t>
   </si>
   <si>
     <t xml:space="preserve">Conjures a pencil-thin stream of corrosive, poisonous acid from the tip of your wand up to a distance of 3m. Dissolves objects, clothes and skin alike, doing 4 + (1+PP)d6 acid damage. A successful resist dodges for half damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Bind Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petrificus totalus</t>
+    <t>Bind Target</t>
+  </si>
+  <si>
+    <t>petrificus totalus</t>
   </si>
   <si>
     <t xml:space="preserve">If the target fails to Resist, they are Paralyzed for (3+PP) turns. The target cannot take major actions, move, or communicate verbally until the spell ends. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cause Confusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pink bolt</t>
+    <t>Cause Confusion</t>
+  </si>
+  <si>
+    <t>confundo</t>
+  </si>
+  <si>
+    <t>Pink bolt</t>
   </si>
   <si>
     <t xml:space="preserve">If target fails to resist, they lose their next turn. </t>
@@ -613,98 +558,95 @@
     <t xml:space="preserve">An Expert level caster makes the target lose the next 1d4 turns. </t>
   </si>
   <si>
-    <t xml:space="preserve">Fireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confringo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large fiery bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launches a fireball at the target, which explodes for 5+(1+PP)d8 fire damage in a 2m radius.
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>confringo</t>
+  </si>
+  <si>
+    <t>Large fiery bolt</t>
+  </si>
+  <si>
+    <t>Launches a fireball at the target, which explodes for 5+(1+PP)d8 fire damage in a 2m radius.
 Targets suffer a moderate burn.</t>
   </si>
   <si>
     <t xml:space="preserve">An expert-level caster may act as if they have a PP-bonus equal to half their character level. </t>
   </si>
   <si>
-    <t xml:space="preserve">Glacial Chill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gelidus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue Glow</t>
+    <t>Glacial Chill</t>
+  </si>
+  <si>
+    <t>gelidus</t>
+  </si>
+  <si>
+    <t>Blue Glow</t>
   </si>
   <si>
     <t xml:space="preserve">A cylinder of radius 5m and height 2m around the target is decreased in temperature by 50 degrees celsius. Those caught in the region take (1+PP)d4 of cold damage, and apply the mild Frostbite status effect. Resist for half damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Heat Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flagrante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Causes a target object to heat up to unimaginable temperatures, doing 3d6 fire damage every time the target object is touched, and applies a severe Burn status effect.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character higher than 13</t>
+    <t>Heat Object</t>
+  </si>
+  <si>
+    <t>flagrante</t>
+  </si>
+  <si>
+    <t>Red rays</t>
+  </si>
+  <si>
+    <t>Causes a target object to heat up to unimaginable temperatures, doing 3d6 fire damage every time the target object is touched, and applies a severe Burn status effect.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t>When cast by a character higher than 13</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, damage done is 3d10</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Object Swarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oppugno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN (Speed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Causes (3+3$\times$PP) nearby objects to hurl themselves at the target. Each object does 1d8 bludgeoning damage. Target may perform a Resist check for each object, reducing the damage from that object by half.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurring Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searing white beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW (Perception)</t>
+    <t>Object Swarm</t>
+  </si>
+  <si>
+    <t>oppugno</t>
+  </si>
+  <si>
+    <t>FIN (Speed)</t>
+  </si>
+  <si>
+    <t>Causes (3+3$\times$PP) nearby objects to hurl themselves at the target. Each object does 1d8 bludgeoning damage. Target may perform a Resist check for each object, reducing the damage from that object by half.</t>
+  </si>
+  <si>
+    <t>Recurring Light</t>
+  </si>
+  <si>
+    <t>catena</t>
+  </si>
+  <si>
+    <t>Searing white beam</t>
+  </si>
+  <si>
+    <t>POW (Perception)</t>
   </si>
   <si>
     <t xml:space="preserve">A beam of blinding light shoots from your wand in a line up to 8m long, striking one target before moving onto the next. Targets take 2d6 of fire damage (doubled if they are UnLife or Undead) and are Blinded if they fail to Resist. Each target has the chance to avoid/counterspell this spell, the next target only receives the beam If the previous one was hit. A maximum of (3+PP) targets may be hit. </t>
@@ -714,26 +656,23 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character higher than 9</t>
+        <charset val="1"/>
+      </rPr>
+      <t>When cast by a character higher than 9</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, spell does an additional 2d6 damage for every 3 caster levels above 6</t>
@@ -743,41 +682,39 @@
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Scramble Abilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traferus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 + PP turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Willpower)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target has their abilities scrambled for the duration of the curse if they fail to Resist. The GM randomly reassigns the character attributes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon{\apos}s Breath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">draco flammor</t>
+    <t>Scramble Abilities</t>
+  </si>
+  <si>
+    <t>traferus</t>
+  </si>
+  <si>
+    <t>5 + PP turns</t>
+  </si>
+  <si>
+    <t>SPR (Willpower)</t>
+  </si>
+  <si>
+    <t>The target has their abilities scrambled for the duration of the curse if they fail to Resist. The GM randomly reassigns the character attributes.</t>
+  </si>
+  <si>
+    <t>Dragon{\apos}s Breath</t>
+  </si>
+  <si>
+    <t>draco flammor</t>
   </si>
   <si>
     <r>
@@ -787,7 +724,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A torrent of flame erupts from the tip of your wand in a cone 3 metres in front of the caster, incinerating everything in its path. Water cannot quench this fire, and it causes 1d12 worth of fire damage for every 3 character levels the caster has above 3</t>
+      <t>A torrent of flame erupts from the tip of your wand in a cone 3 metres in front of the caster, incinerating everything in its path. Water cannot quench this fire, and it causes 1d12 worth of fire damage for every 3 character levels the caster has above 3</t>
     </r>
     <r>
       <rPr>
@@ -797,7 +734,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -810,82 +747,79 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Arc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrum maxima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue arc</t>
+    <t>Electrical Arc</t>
+  </si>
+  <si>
+    <t>electrum maxima</t>
+  </si>
+  <si>
+    <t>Blue arc</t>
   </si>
   <si>
     <t xml:space="preserve">Whilst you maintain concentration, a bolt of energy arcs from the end of your wand, doing (4+PP)d6 electrical damage per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Magical Detonation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expulso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launches a magical bolt at the target which, if it makes contact, causes the object to violently tear itself apart, doing  (1 + PP)d8 + 6 force damage. Resist for half damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character higher than 15</t>
+    <t>Magical Detonation</t>
+  </si>
+  <si>
+    <t>expulso</t>
+  </si>
+  <si>
+    <t>Launches a magical bolt at the target which, if it makes contact, causes the object to violently tear itself apart, doing  (1 + PP)d8 + 6 force damage. Resist for half damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t>When cast by a character higher than 15</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, use a d12 dice for the damage check. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Meteor Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bothynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon flaming rocks from the heavens, doing (3+PP)d8 bludgeoning damage and (4+$2\times$PP)d6 fire damage to all enemies in a 10m radius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shield Breaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misericorde</t>
+    <t>Meteor Strike</t>
+  </si>
+  <si>
+    <t>bothynus</t>
+  </si>
+  <si>
+    <t>Summon flaming rocks from the heavens, doing (3+PP)d8 bludgeoning damage and (4+$2\times$PP)d6 fire damage to all enemies in a 10m radius.</t>
+  </si>
+  <si>
+    <t>Shield Breaker</t>
+  </si>
+  <si>
+    <t>misericorde</t>
   </si>
   <si>
     <t xml:space="preserve">Finds the weak point in the armour, and exploits it: if the casting check exceeds the AC/HP of the weakest defensive spell active on the target, all AC (both magical and physical) is set to 0 for two turns. Physical AC is restored at the end of this period. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shockwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inpusla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Perception)</t>
+    <t>Shockwave</t>
+  </si>
+  <si>
+    <t>inpusla</t>
+  </si>
+  <si>
+    <t>ATH (Perception)</t>
   </si>
   <si>
     <t xml:space="preserve">A shockwave emanates from the caster in every direction, for a radius of 3m, doing 1d8 concussive damage plus 3 \cvdv and hurling all unprotected away from the caster to the edge of the affected region. Resist for half damage. </t>
@@ -895,92 +829,129 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">If the caster exceeds 13</t>
+        <charset val="1"/>
+      </rPr>
+      <t>If the caster exceeds 13</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, the damage increases to 2d8 + 5 \cvdv</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bestow Curse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maledicto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (10 minutes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casts a permanent curse on the target. You may choose the effects of this curse, though the GM has a veto. Be inventive!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crush Bones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obcillo ossium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A great force smashes into the opponent, breaking their bones. 
+    <t>Bestow Curse</t>
+  </si>
+  <si>
+    <t>maledicto</t>
+  </si>
+  <si>
+    <t>Ritual (10 minutes)</t>
+  </si>
+  <si>
+    <t>Casts a permanent curse on the target. You may choose the effects of this curse, though the GM has a veto. Be inventive!</t>
+  </si>
+  <si>
+    <t>Crush Bones</t>
+  </si>
+  <si>
+    <t>obcillo ossium</t>
+  </si>
+  <si>
+    <t>A great force smashes into the opponent, breaking their bones. 
 Does (3+$2\times$PP)d12 bludgeoning damage. Applies the Broken Bone status effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">Disintegrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reducto</t>
+    <t>Disintegrate</t>
+  </si>
+  <si>
+    <t>reducto</t>
   </si>
   <si>
     <t xml:space="preserve">If the spell makes contact with matter, causes it to instantly disintegrate. Living beings take 10d10 worth of force damage. Resist for half damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Howl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast</t>
+    <t>Howl</t>
+  </si>
+  <si>
+    <t>Beast</t>
   </si>
   <si>
     <t xml:space="preserve">{\bf Werewolf Species spell. This spell can only be learned by werewolves} \\ Release an earsplitting, supernatural roar which causes all beings within 100m to perform a SPR Resist. Failure causes them to gain the {\it Terrified} status. </t>
   </si>
   <si>
-    <t xml:space="preserve">Confound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lombus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue bolt</t>
+    <t>Confound</t>
+  </si>
+  <si>
+    <t>lombus</t>
+  </si>
+  <si>
+    <t>Blue bolt</t>
   </si>
   <si>
     <t xml:space="preserve">The target suffers a 1-point penalty to all checks for the duration of the spell. </t>
+  </si>
+  <si>
+    <t>10 turns</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <r>
+      <t>When cast by a character higher than 14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="aakar"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, spell lasts for 20 minutes.</t>
+    </r>
+  </si>
+  <si>
+    <t>The afflicted feels perpetual, soul-sapping hunger. Every minute (20 turns) where at least two mouthfuls of food is not consumed, suffer necrotic damage equal to the number of minutes since food was last consumed, until the spell effect ends. Target may perform a Resist check every 3 turns, to end the effect.</t>
+  </si>
+  <si>
+    <t>mora maledictus</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This spell may be cast as a spell of any level greater than Novice. After a target is hit by this spell, you must write down another curse that you are able to cast, of a lower level than the one chosen to cast this spell. At any point in the next hour, you may reveal the chosen curse, and the effects of that spell are then immediately applied to the target. </t>
+  </si>
+  <si>
+    <t>Delayed Effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -988,24 +959,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="aakar"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1018,7 +973,6 @@
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="aakar"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1051,7 +1005,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1059,98 +1013,364 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMF37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="87.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="26.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="8.67"/>
+    <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" style="1"/>
+    <col min="8" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="87.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" style="2" customWidth="1"/>
+    <col min="12" max="1020" width="11.5703125" style="1"/>
+    <col min="1021" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="33.75">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1424,7 @@
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="3"/>
@@ -1216,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="33.75">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1455,7 @@
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1251,7 +1471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="24">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1267,10 +1487,10 @@
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
@@ -1282,7 +1502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="24">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1298,10 +1518,10 @@
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1312,7 +1532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="33.75">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1328,10 +1548,10 @@
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
@@ -1343,7 +1563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="24">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1357,10 +1577,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1373,7 +1593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1389,10 +1609,10 @@
       <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="3"/>
@@ -1404,7 +1624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="36">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1420,10 +1640,10 @@
       <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1436,7 +1656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="48">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -1452,10 +1672,10 @@
       <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="3"/>
@@ -1467,7 +1687,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="45">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1482,66 +1702,66 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="36">
+      <c r="A12" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>2</v>
+        <v>171</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>59</v>
@@ -1550,72 +1770,72 @@
         <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="36">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="24">
+      <c r="A15" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1623,18 +1843,18 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="36">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -1643,70 +1863,70 @@
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="36">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>14</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="24">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="3">
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1716,29 +1936,29 @@
         <v>24</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="22.5">
       <c r="A19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="G19" s="3">
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1748,63 +1968,63 @@
         <v>24</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="33.75">
       <c r="A20" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="3">
         <v>3</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36">
       <c r="A21" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1814,239 +2034,239 @@
         <v>24</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="24">
       <c r="A22" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="G22" s="3">
         <v>3</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="24">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="3">
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="I23" s="3">
         <v>10</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="48">
       <c r="A24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="24">
       <c r="A25" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="G25" s="3">
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="38.25">
       <c r="A26" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3">
         <v>12</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="22.5">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="1">
         <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33.75">
       <c r="A28" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="24">
+      <c r="A29" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>14</v>
@@ -2055,24 +2275,24 @@
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="3">
         <v>4</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="36">
       <c r="A30" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>14</v>
@@ -2081,64 +2301,64 @@
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="3">
         <v>4</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="36">
       <c r="A31" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="3">
         <v>4</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="24">
       <c r="A32" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="3">
         <v>5</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -2148,128 +2368,153 @@
         <v>24</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="24">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="3">
         <v>5</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="24">
       <c r="A34" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="3">
         <v>5</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="I34" s="3">
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="22.5">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="33.75">
+      <c r="A37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
